--- a/Code/Results/Cases/Case_1_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2698127010573188</v>
+        <v>0.1424363452868818</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.159263599854583</v>
+        <v>0.1322214425083246</v>
       </c>
       <c r="E2">
-        <v>0.2539173115810271</v>
+        <v>0.1546383889056173</v>
       </c>
       <c r="F2">
-        <v>0.9649657093446109</v>
+        <v>1.490140051058901</v>
       </c>
       <c r="G2">
-        <v>1.325872474752344</v>
+        <v>1.090360206271924</v>
       </c>
       <c r="H2">
-        <v>0.6353191376230143</v>
+        <v>1.031994992964741</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4362998618265408</v>
+        <v>0.2170802489906833</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.50019423629129</v>
+        <v>5.67559464804296</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2353527957492361</v>
+        <v>0.1329334815845868</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1428828215701401</v>
+        <v>0.1275016298945104</v>
       </c>
       <c r="E3">
-        <v>0.2218377038321222</v>
+        <v>0.1475026103910437</v>
       </c>
       <c r="F3">
-        <v>0.8179411376780195</v>
+        <v>1.520208920582704</v>
       </c>
       <c r="G3">
-        <v>1.102543939015021</v>
+        <v>1.09302037860131</v>
       </c>
       <c r="H3">
-        <v>0.5518804980333698</v>
+        <v>1.0467347102703</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3740954689771172</v>
+        <v>0.2049804097438965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.19229472148385</v>
+        <v>5.00614054727555</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2144714580869476</v>
+        <v>0.1271690837671571</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1329505759140375</v>
+        <v>0.1246064820111883</v>
       </c>
       <c r="E4">
-        <v>0.2029896696001146</v>
+        <v>0.1432093557517788</v>
       </c>
       <c r="F4">
-        <v>0.7421276598296203</v>
+        <v>1.541261295821883</v>
       </c>
       <c r="G4">
-        <v>0.980423468096248</v>
+        <v>1.096835282291096</v>
       </c>
       <c r="H4">
-        <v>0.5080622618224169</v>
+        <v>1.057228502865712</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3381893651131094</v>
+        <v>0.1977467703405296</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.80841957426048</v>
+        <v>4.59358577444857</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2060220561443487</v>
+        <v>0.1248378441387388</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1289282464909576</v>
+        <v>0.1234274454015747</v>
       </c>
       <c r="E5">
-        <v>0.1954836941821725</v>
+        <v>0.1414817835958004</v>
       </c>
       <c r="F5">
-        <v>0.7143162093338162</v>
+        <v>1.550482623319141</v>
       </c>
       <c r="G5">
-        <v>0.9338313788724975</v>
+        <v>1.098928785314314</v>
       </c>
       <c r="H5">
-        <v>0.49179205996127</v>
+        <v>1.061863467395725</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3240273205059907</v>
+        <v>0.1948473396674757</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.25101694493301</v>
+        <v>4.425080118249809</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2046223945252876</v>
+        <v>0.1244518215622179</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1282616904128417</v>
+        <v>0.1232317146358213</v>
       </c>
       <c r="E6">
-        <v>0.1942468875336161</v>
+        <v>0.1411962428126472</v>
       </c>
       <c r="F6">
-        <v>0.7098699747082264</v>
+        <v>1.552052351670795</v>
       </c>
       <c r="G6">
-        <v>0.9262708244704783</v>
+        <v>1.099308677203595</v>
       </c>
       <c r="H6">
-        <v>0.4891789645063369</v>
+        <v>1.062654635977211</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3217013965601012</v>
+        <v>0.1943687863774102</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.15880860900938</v>
+        <v>4.397076370472035</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2143572759735974</v>
+        <v>0.1271375716534919</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1328962353760943</v>
+        <v>0.1245905779687035</v>
       </c>
       <c r="E7">
-        <v>0.2028877798753399</v>
+        <v>0.1431859684221308</v>
       </c>
       <c r="F7">
-        <v>0.7417407627724657</v>
+        <v>1.541383068918663</v>
       </c>
       <c r="G7">
-        <v>0.9797829817560881</v>
+        <v>1.096861346716523</v>
       </c>
       <c r="H7">
-        <v>0.5078367470417788</v>
+        <v>1.057289565105989</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3379965928681941</v>
+        <v>0.1977074730053801</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.8008779357049</v>
+        <v>4.591314820678463</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.257867092817051</v>
+        <v>0.1391451999285778</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1535852163350171</v>
+        <v>0.1305934870752168</v>
       </c>
       <c r="E8">
-        <v>0.2426543152891796</v>
+        <v>0.1521595470580763</v>
       </c>
       <c r="F8">
-        <v>0.9109048134240254</v>
+        <v>1.49996483536593</v>
       </c>
       <c r="G8">
-        <v>1.245358312139103</v>
+        <v>1.090818800388803</v>
       </c>
       <c r="H8">
-        <v>0.6048270835341327</v>
+        <v>1.036775018318536</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4143069424080323</v>
+        <v>0.2128670531204051</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.69634760665971</v>
+        <v>5.445074737642614</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3459130760765703</v>
+        <v>0.1632480499484785</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1955123033086608</v>
+        <v>0.1423865386132945</v>
       </c>
       <c r="E9">
-        <v>0.3296234105326121</v>
+        <v>0.170467608923218</v>
       </c>
       <c r="F9">
-        <v>1.389099355710869</v>
+        <v>1.439700264383077</v>
       </c>
       <c r="G9">
-        <v>1.919560218644108</v>
+        <v>1.09672006846867</v>
       </c>
       <c r="H9">
-        <v>0.8697793080002896</v>
+        <v>1.008197053926551</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5882394774406379</v>
+        <v>0.2441923344177042</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.74134754946746</v>
+        <v>7.107812784689884</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4131640213406911</v>
+        <v>0.1812941243713198</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.227793059399275</v>
+        <v>0.1510637264713921</v>
       </c>
       <c r="E10">
-        <v>0.4033157577082704</v>
+        <v>0.1843715597602653</v>
       </c>
       <c r="F10">
-        <v>1.889939666633907</v>
+        <v>1.408766259248338</v>
       </c>
       <c r="G10">
-        <v>2.573461457084051</v>
+        <v>1.112495880434437</v>
       </c>
       <c r="H10">
-        <v>1.140192653493557</v>
+        <v>0.9945793962921528</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7426638935591399</v>
+        <v>0.2682497608058156</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.60179666315673</v>
+        <v>8.32330563426251</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4445873370294748</v>
+        <v>0.1895770648108339</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2430082203302533</v>
+        <v>0.1550141381199808</v>
       </c>
       <c r="E11">
-        <v>0.4404746792972816</v>
+        <v>0.1908001737484639</v>
       </c>
       <c r="F11">
-        <v>2.171089424536149</v>
+        <v>1.39771570467552</v>
       </c>
       <c r="G11">
-        <v>2.927797247877805</v>
+        <v>1.122293471826396</v>
       </c>
       <c r="H11">
-        <v>1.290076889079074</v>
+        <v>0.9900474581172034</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8228580509735792</v>
+        <v>0.2794370680254445</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.97059224502436</v>
+        <v>8.875163668919413</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4566370284968997</v>
+        <v>0.1927241562447648</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2488712354564626</v>
+        <v>0.1565105048719886</v>
       </c>
       <c r="E12">
-        <v>0.455263453942905</v>
+        <v>0.1932498457573075</v>
       </c>
       <c r="F12">
-        <v>2.287900905096649</v>
+        <v>1.393976157277237</v>
       </c>
       <c r="G12">
-        <v>3.073029845735334</v>
+        <v>1.126391899291946</v>
       </c>
       <c r="H12">
-        <v>1.352035506097167</v>
+        <v>0.9885755608451916</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8551963873764095</v>
+        <v>0.283709830439733</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>29.89871591184266</v>
+        <v>9.084001502869739</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4540346237748025</v>
+        <v>0.1920459069752241</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2476035225312501</v>
+        <v>0.1561882165137263</v>
       </c>
       <c r="E13">
-        <v>0.452042489564441</v>
+        <v>0.1927215781670455</v>
       </c>
       <c r="F13">
-        <v>2.262228039031797</v>
+        <v>1.394761570965599</v>
       </c>
       <c r="G13">
-        <v>3.041200586554254</v>
+        <v>1.125491776441095</v>
       </c>
       <c r="H13">
-        <v>1.338432764499061</v>
+        <v>0.9888816141807126</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8481328986090944</v>
+        <v>0.2827879743498727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>29.69727171218432</v>
+        <v>9.039030442798605</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4455754463837991</v>
+        <v>0.1898357674569269</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.24348836625785</v>
+        <v>0.1551372365336618</v>
       </c>
       <c r="E14">
-        <v>0.4416755640108647</v>
+        <v>0.1910014008235734</v>
       </c>
       <c r="F14">
-        <v>2.180472765439944</v>
+        <v>1.397399068923363</v>
       </c>
       <c r="G14">
-        <v>2.939503247089647</v>
+        <v>1.122622803939493</v>
       </c>
       <c r="H14">
-        <v>1.295060335962319</v>
+        <v>0.9899214393028046</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8254751089047545</v>
+        <v>0.2797878537076173</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>29.04626526002733</v>
+        <v>8.89234756865477</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4404146216590874</v>
+        <v>0.1884833612855772</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2409818125978376</v>
+        <v>0.1544935367820131</v>
       </c>
       <c r="E15">
-        <v>0.4354261525795948</v>
+        <v>0.1899497466911555</v>
       </c>
       <c r="F15">
-        <v>2.131841434711845</v>
+        <v>1.399072889660133</v>
       </c>
       <c r="G15">
-        <v>2.878755994162788</v>
+        <v>1.120916384339097</v>
       </c>
       <c r="H15">
-        <v>1.269219974236506</v>
+        <v>0.9905903250570702</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8118731902493721</v>
+        <v>0.2779549717692333</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>28.6518652577879</v>
+        <v>8.802482492939021</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4111295825023547</v>
+        <v>0.1807542910400741</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2268113395017366</v>
+        <v>0.1508056189182696</v>
       </c>
       <c r="E16">
-        <v>0.4009753809035388</v>
+        <v>0.1839535529196326</v>
       </c>
       <c r="F16">
-        <v>1.872843830382877</v>
+        <v>1.409550137819124</v>
       </c>
       <c r="G16">
-        <v>2.551669460339582</v>
+        <v>1.111909295614424</v>
       </c>
       <c r="H16">
-        <v>1.131040468491051</v>
+        <v>0.9949094659522189</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7376644060156252</v>
+        <v>0.267523657592136</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.45081233345763</v>
+        <v>8.287220085190484</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3933961444290901</v>
+        <v>0.1760315756076665</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2182694007833561</v>
+        <v>0.1485439849378309</v>
       </c>
       <c r="E17">
-        <v>0.3808876786210789</v>
+        <v>0.1803018944789301</v>
       </c>
       <c r="F17">
-        <v>1.729205582020924</v>
+        <v>1.416758919699731</v>
       </c>
       <c r="G17">
-        <v>2.367290359617328</v>
+        <v>1.107063089581203</v>
       </c>
       <c r="H17">
-        <v>1.053949686312791</v>
+        <v>0.9979886269167935</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6950069212446408</v>
+        <v>0.2611876835722171</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.14598398651788</v>
+        <v>7.970858523457878</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3832722343984898</v>
+        <v>0.1733221348472114</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2134043450458307</v>
+        <v>0.1472434466896999</v>
       </c>
       <c r="E18">
-        <v>0.3696608934642143</v>
+        <v>0.1782112863064782</v>
       </c>
       <c r="F18">
-        <v>1.651399541455021</v>
+        <v>1.421188971678944</v>
       </c>
       <c r="G18">
-        <v>2.266371256305263</v>
+        <v>1.104521695698651</v>
       </c>
       <c r="H18">
-        <v>1.012035055780814</v>
+        <v>0.9999158761484637</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6713655972100838</v>
+        <v>0.2575662281486757</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.40968119421996</v>
+        <v>7.788793412625182</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3798566878596716</v>
+        <v>0.1724059591305007</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2117647395947557</v>
+        <v>0.1468031578528297</v>
       </c>
       <c r="E19">
-        <v>0.3659111517781</v>
+        <v>0.1775051019011826</v>
       </c>
       <c r="F19">
-        <v>1.625816738492787</v>
+        <v>1.422737326935845</v>
       </c>
       <c r="G19">
-        <v>2.233012858950758</v>
+        <v>1.103703133731983</v>
       </c>
       <c r="H19">
-        <v>0.9982275398333798</v>
+        <v>1.000595081696048</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6635015270079663</v>
+        <v>0.2563439463796726</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.16261359551896</v>
+        <v>7.727131266826234</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3952758493312842</v>
+        <v>0.1765335990014307</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2191735777474264</v>
+        <v>0.1487847094684724</v>
       </c>
       <c r="E20">
-        <v>0.3829910271368249</v>
+        <v>0.1806896100882582</v>
       </c>
       <c r="F20">
-        <v>1.743982137692498</v>
+        <v>1.415962089481596</v>
       </c>
       <c r="G20">
-        <v>2.386369535322046</v>
+        <v>1.107553433099866</v>
       </c>
       <c r="H20">
-        <v>1.061897030479628</v>
+        <v>0.9976446422578817</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.699452117944432</v>
+        <v>0.2618597864840524</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.28336465208264</v>
+        <v>8.004546230589312</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.448055735243102</v>
+        <v>0.1904846540224838</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.244694090930281</v>
+        <v>0.1554459232153818</v>
       </c>
       <c r="E21">
-        <v>0.4446991363205086</v>
+        <v>0.1915062401917709</v>
       </c>
       <c r="F21">
-        <v>2.20417839541345</v>
+        <v>1.396612207764392</v>
       </c>
       <c r="G21">
-        <v>2.969045216127284</v>
+        <v>1.123454860691055</v>
       </c>
       <c r="H21">
-        <v>1.307645227657645</v>
+        <v>0.9896093470985079</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8320712813119115</v>
+        <v>0.2806680634606522</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>29.23655270903242</v>
+        <v>8.935435517460235</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4834494283982167</v>
+        <v>0.1996637724413262</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2619833256707693</v>
+        <v>0.1598019242019291</v>
       </c>
       <c r="E22">
-        <v>0.4893729966292568</v>
+        <v>0.1986648937523583</v>
       </c>
       <c r="F22">
-        <v>2.567465409666198</v>
+        <v>1.386565141142654</v>
       </c>
       <c r="G22">
-        <v>3.416655988178547</v>
+        <v>1.136116079260006</v>
       </c>
       <c r="H22">
-        <v>1.499672882517103</v>
+        <v>0.985783952423759</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9306835489988288</v>
+        <v>0.2931730564125701</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>32.00838966510111</v>
+        <v>9.54302484357828</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4644638184536802</v>
+        <v>0.194759118769241</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2526889712430318</v>
+        <v>0.1574768182892115</v>
       </c>
       <c r="E23">
-        <v>0.4650431581350318</v>
+        <v>0.1948358703229189</v>
       </c>
       <c r="F23">
-        <v>2.366629442367412</v>
+        <v>1.391686072842219</v>
       </c>
       <c r="G23">
-        <v>3.170336827105018</v>
+        <v>1.129147138521091</v>
       </c>
       <c r="H23">
-        <v>1.393700706640971</v>
+        <v>0.9876934194796831</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8767118313112974</v>
+        <v>0.2864789723007135</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>30.50798394612474</v>
+        <v>9.218810567473099</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3944258149134612</v>
+        <v>0.1763066164297129</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2187646583843303</v>
+        <v>0.1486758788245055</v>
       </c>
       <c r="E24">
-        <v>0.3820391140299222</v>
+        <v>0.1805142965461926</v>
       </c>
       <c r="F24">
-        <v>1.737286973312123</v>
+        <v>1.416321447555944</v>
       </c>
       <c r="G24">
-        <v>2.377728206346745</v>
+        <v>1.107330987298013</v>
       </c>
       <c r="H24">
-        <v>1.058296634620802</v>
+        <v>0.9977996690942632</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6974397312494034</v>
+        <v>0.2615558628870787</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.22121226460382</v>
+        <v>7.989316594468505</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3217203841635836</v>
+        <v>0.156668218767976</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1839671043324813</v>
+        <v>0.139193962424045</v>
       </c>
       <c r="E25">
-        <v>0.3047646166799183</v>
+        <v>0.1654367777617338</v>
       </c>
       <c r="F25">
-        <v>1.238880729174198</v>
+        <v>1.453701928048076</v>
       </c>
       <c r="G25">
-        <v>1.715149748918719</v>
+        <v>1.093159998725127</v>
       </c>
       <c r="H25">
-        <v>0.7875035721019401</v>
+        <v>1.014652629159997</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5375774683521684</v>
+        <v>0.2355401676461213</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.04983264261571</v>
+        <v>6.659142366164247</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424363452868818</v>
+        <v>0.2698127010562956</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1322214425083246</v>
+        <v>0.1592635998544694</v>
       </c>
       <c r="E2">
-        <v>0.1546383889056173</v>
+        <v>0.25391731158102</v>
       </c>
       <c r="F2">
-        <v>1.490140051058901</v>
+        <v>0.9649657093446535</v>
       </c>
       <c r="G2">
-        <v>1.090360206271924</v>
+        <v>1.325872474752344</v>
       </c>
       <c r="H2">
-        <v>1.031994992964741</v>
+        <v>0.6353191376230996</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2170802489906833</v>
+        <v>0.4362998618263561</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.67559464804296</v>
+        <v>16.50019423629121</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329334815845868</v>
+        <v>0.2353527957484687</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1275016298945104</v>
+        <v>0.1428828215703675</v>
       </c>
       <c r="E3">
-        <v>0.1475026103910437</v>
+        <v>0.2218377038321222</v>
       </c>
       <c r="F3">
-        <v>1.520208920582704</v>
+        <v>0.8179411376780337</v>
       </c>
       <c r="G3">
-        <v>1.09302037860131</v>
+        <v>1.102543939014936</v>
       </c>
       <c r="H3">
-        <v>1.0467347102703</v>
+        <v>0.5518804980333982</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2049804097438965</v>
+        <v>0.3740954689769893</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.00614054727555</v>
+        <v>14.19229472148379</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271690837671571</v>
+        <v>0.2144714580862654</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1246064820111883</v>
+        <v>0.1329505759139238</v>
       </c>
       <c r="E4">
-        <v>0.1432093557517788</v>
+        <v>0.2029896696001359</v>
       </c>
       <c r="F4">
-        <v>1.541261295821883</v>
+        <v>0.742127659829606</v>
       </c>
       <c r="G4">
-        <v>1.096835282291096</v>
+        <v>0.9804234680962907</v>
       </c>
       <c r="H4">
-        <v>1.057228502865712</v>
+        <v>0.5080622618224169</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1977467703405296</v>
+        <v>0.3381893651131236</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.59358577444857</v>
+        <v>12.80841957426065</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248378441387388</v>
+        <v>0.2060220561443771</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1234274454015747</v>
+        <v>0.1289282464909292</v>
       </c>
       <c r="E5">
-        <v>0.1414817835958004</v>
+        <v>0.1954836941821796</v>
       </c>
       <c r="F5">
-        <v>1.550482623319141</v>
+        <v>0.7143162093338162</v>
       </c>
       <c r="G5">
-        <v>1.098928785314314</v>
+        <v>0.9338313788725685</v>
       </c>
       <c r="H5">
-        <v>1.061863467395725</v>
+        <v>0.49179205996127</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1948473396674757</v>
+        <v>0.3240273205059339</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.425080118249809</v>
+        <v>12.25101694493318</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244518215622179</v>
+        <v>0.2046223945257424</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1232317146358213</v>
+        <v>0.1282616904126286</v>
       </c>
       <c r="E6">
-        <v>0.1411962428126472</v>
+        <v>0.1942468875336232</v>
       </c>
       <c r="F6">
-        <v>1.552052351670795</v>
+        <v>0.7098699747082264</v>
       </c>
       <c r="G6">
-        <v>1.099308677203595</v>
+        <v>0.9262708244704356</v>
       </c>
       <c r="H6">
-        <v>1.062654635977211</v>
+        <v>0.4891789645063227</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1943687863774102</v>
+        <v>0.3217013965599875</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.397076370472035</v>
+        <v>12.15880860900947</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271375716534919</v>
+        <v>0.2143572759738674</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1245905779687035</v>
+        <v>0.1328962353759806</v>
       </c>
       <c r="E7">
-        <v>0.1431859684221308</v>
+        <v>0.2028877798753115</v>
       </c>
       <c r="F7">
-        <v>1.541383068918663</v>
+        <v>0.7417407627724799</v>
       </c>
       <c r="G7">
-        <v>1.096861346716523</v>
+        <v>0.9797829817560313</v>
       </c>
       <c r="H7">
-        <v>1.057289565105989</v>
+        <v>0.5078367470418925</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1977074730053801</v>
+        <v>0.3379965928682083</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.591314820678463</v>
+        <v>12.80087793570473</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391451999285778</v>
+        <v>0.257867092816781</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1305934870752168</v>
+        <v>0.1535852163349887</v>
       </c>
       <c r="E8">
-        <v>0.1521595470580763</v>
+        <v>0.2426543152891654</v>
       </c>
       <c r="F8">
-        <v>1.49996483536593</v>
+        <v>0.9109048134240822</v>
       </c>
       <c r="G8">
-        <v>1.090818800388803</v>
+        <v>1.245358312139103</v>
       </c>
       <c r="H8">
-        <v>1.036775018318536</v>
+        <v>0.6048270835341327</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2128670531204051</v>
+        <v>0.4143069424079897</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.445074737642614</v>
+        <v>15.69634760665957</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1632480499484785</v>
+        <v>0.3459130760765703</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1423865386132945</v>
+        <v>0.1955123033086608</v>
       </c>
       <c r="E9">
-        <v>0.170467608923218</v>
+        <v>0.3296234105326121</v>
       </c>
       <c r="F9">
-        <v>1.439700264383077</v>
+        <v>1.389099355710869</v>
       </c>
       <c r="G9">
-        <v>1.09672006846867</v>
+        <v>1.919560218644108</v>
       </c>
       <c r="H9">
-        <v>1.008197053926551</v>
+        <v>0.8697793080001759</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2441923344177042</v>
+        <v>0.5882394774406379</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.107812784689884</v>
+        <v>21.74134754946746</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1812941243713198</v>
+        <v>0.4131640213401511</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1510637264713921</v>
+        <v>0.2277930593993744</v>
       </c>
       <c r="E10">
-        <v>0.1843715597602653</v>
+        <v>0.4033157577082704</v>
       </c>
       <c r="F10">
-        <v>1.408766259248338</v>
+        <v>1.889939666633907</v>
       </c>
       <c r="G10">
-        <v>1.112495880434437</v>
+        <v>2.573461457084051</v>
       </c>
       <c r="H10">
-        <v>0.9945793962921528</v>
+        <v>1.140192653493528</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2682497608058156</v>
+        <v>0.7426638935590546</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.32330563426251</v>
+        <v>26.60179666315713</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1895770648108339</v>
+        <v>0.444587337029219</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1550141381199808</v>
+        <v>0.2430082203301822</v>
       </c>
       <c r="E11">
-        <v>0.1908001737484639</v>
+        <v>0.440474679297246</v>
       </c>
       <c r="F11">
-        <v>1.39771570467552</v>
+        <v>2.171089424536177</v>
       </c>
       <c r="G11">
-        <v>1.122293471826396</v>
+        <v>2.927797247877805</v>
       </c>
       <c r="H11">
-        <v>0.9900474581172034</v>
+        <v>1.290076889079103</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2794370680254445</v>
+        <v>0.822858050973565</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.875163668919413</v>
+        <v>28.97059224502459</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1927241562447648</v>
+        <v>0.4566370284964023</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1565105048719886</v>
+        <v>0.2488712354564626</v>
       </c>
       <c r="E12">
-        <v>0.1932498457573075</v>
+        <v>0.4552634539428908</v>
       </c>
       <c r="F12">
-        <v>1.393976157277237</v>
+        <v>2.287900905096677</v>
       </c>
       <c r="G12">
-        <v>1.126391899291946</v>
+        <v>3.073029845735448</v>
       </c>
       <c r="H12">
-        <v>0.9885755608451916</v>
+        <v>1.352035506097167</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.283709830439733</v>
+        <v>0.8551963873763526</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.084001502869739</v>
+        <v>29.89871591184271</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1920459069752241</v>
+        <v>0.4540346237748025</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1561882165137263</v>
+        <v>0.2476035225313638</v>
       </c>
       <c r="E13">
-        <v>0.1927215781670455</v>
+        <v>0.452042489564441</v>
       </c>
       <c r="F13">
-        <v>1.394761570965599</v>
+        <v>2.262228039031839</v>
       </c>
       <c r="G13">
-        <v>1.125491776441095</v>
+        <v>3.041200586554339</v>
       </c>
       <c r="H13">
-        <v>0.9888816141807126</v>
+        <v>1.338432764499089</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2827879743498727</v>
+        <v>0.8481328986090659</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.039030442798605</v>
+        <v>29.69727171218426</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1898357674569269</v>
+        <v>0.4455754463849928</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1551372365336618</v>
+        <v>0.2434883662578358</v>
       </c>
       <c r="E14">
-        <v>0.1910014008235734</v>
+        <v>0.4416755640108718</v>
       </c>
       <c r="F14">
-        <v>1.397399068923363</v>
+        <v>2.180472765439944</v>
       </c>
       <c r="G14">
-        <v>1.122622803939493</v>
+        <v>2.939503247089675</v>
       </c>
       <c r="H14">
-        <v>0.9899214393028046</v>
+        <v>1.295060335962347</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2797878537076173</v>
+        <v>0.8254751089049108</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.89234756865477</v>
+        <v>29.04626526002761</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1884833612855772</v>
+        <v>0.4404146216590163</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1544935367820131</v>
+        <v>0.2409818125978234</v>
       </c>
       <c r="E15">
-        <v>0.1899497466911555</v>
+        <v>0.4354261525795593</v>
       </c>
       <c r="F15">
-        <v>1.399072889660133</v>
+        <v>2.131841434711831</v>
       </c>
       <c r="G15">
-        <v>1.120916384339097</v>
+        <v>2.878755994162759</v>
       </c>
       <c r="H15">
-        <v>0.9905903250570702</v>
+        <v>1.269219974236449</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2779549717692333</v>
+        <v>0.8118731902494289</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.802482492939021</v>
+        <v>28.65186525778785</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1807542910400741</v>
+        <v>0.4111295825026957</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1508056189182696</v>
+        <v>0.2268113395019213</v>
       </c>
       <c r="E16">
-        <v>0.1839535529196326</v>
+        <v>0.4009753809035317</v>
       </c>
       <c r="F16">
-        <v>1.409550137819124</v>
+        <v>1.872843830382877</v>
       </c>
       <c r="G16">
-        <v>1.111909295614424</v>
+        <v>2.551669460339639</v>
       </c>
       <c r="H16">
-        <v>0.9949094659522189</v>
+        <v>1.131040468491051</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.267523657592136</v>
+        <v>0.737664406015611</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.287220085190484</v>
+        <v>26.45081233345746</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1760315756076665</v>
+        <v>0.3933961444299428</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1485439849378309</v>
+        <v>0.2182694007832851</v>
       </c>
       <c r="E17">
-        <v>0.1803018944789301</v>
+        <v>0.3808876786210718</v>
       </c>
       <c r="F17">
-        <v>1.416758919699731</v>
+        <v>1.72920558202091</v>
       </c>
       <c r="G17">
-        <v>1.107063089581203</v>
+        <v>2.367290359617442</v>
       </c>
       <c r="H17">
-        <v>0.9979886269167935</v>
+        <v>1.053949686312791</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2611876835722171</v>
+        <v>0.6950069212446408</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.970858523457878</v>
+        <v>25.14598398651833</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1733221348472114</v>
+        <v>0.3832722343977082</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1472434466896999</v>
+        <v>0.2134043450459586</v>
       </c>
       <c r="E18">
-        <v>0.1782112863064782</v>
+        <v>0.3696608934642285</v>
       </c>
       <c r="F18">
-        <v>1.421188971678944</v>
+        <v>1.651399541455021</v>
       </c>
       <c r="G18">
-        <v>1.104521695698651</v>
+        <v>2.266371256305376</v>
       </c>
       <c r="H18">
-        <v>0.9999158761484637</v>
+        <v>1.012035055780956</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2575662281486757</v>
+        <v>0.6713655972100838</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.788793412625182</v>
+        <v>24.40968119422007</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1724059591305007</v>
+        <v>0.3798566878602401</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1468031578528297</v>
+        <v>0.2117647395948126</v>
       </c>
       <c r="E19">
-        <v>0.1775051019011826</v>
+        <v>0.3659111517780929</v>
       </c>
       <c r="F19">
-        <v>1.422737326935845</v>
+        <v>1.62581673849283</v>
       </c>
       <c r="G19">
-        <v>1.103703133731983</v>
+        <v>2.233012858950843</v>
       </c>
       <c r="H19">
-        <v>1.000595081696048</v>
+        <v>0.9982275398334082</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2563439463796726</v>
+        <v>0.6635015270079236</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.727131266826234</v>
+        <v>24.16261359551885</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1765335990014307</v>
+        <v>0.3952758493302895</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1487847094684724</v>
+        <v>0.2191735777472417</v>
       </c>
       <c r="E20">
-        <v>0.1806896100882582</v>
+        <v>0.382991027136832</v>
       </c>
       <c r="F20">
-        <v>1.415962089481596</v>
+        <v>1.743982137692484</v>
       </c>
       <c r="G20">
-        <v>1.107553433099866</v>
+        <v>2.386369535322046</v>
       </c>
       <c r="H20">
-        <v>0.9976446422578817</v>
+        <v>1.061897030479599</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2618597864840524</v>
+        <v>0.6994521179444604</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>8.004546230589312</v>
+        <v>25.28336465208258</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1904846540224838</v>
+        <v>0.4480557352431447</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1554459232153818</v>
+        <v>0.2446940909303521</v>
       </c>
       <c r="E21">
-        <v>0.1915062401917709</v>
+        <v>0.4446991363205228</v>
       </c>
       <c r="F21">
-        <v>1.396612207764392</v>
+        <v>2.204178395413479</v>
       </c>
       <c r="G21">
-        <v>1.123454860691055</v>
+        <v>2.96904521612737</v>
       </c>
       <c r="H21">
-        <v>0.9896093470985079</v>
+        <v>1.307645227657616</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2806680634606522</v>
+        <v>0.8320712813119258</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.935435517460235</v>
+        <v>29.23655270903203</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1996637724413262</v>
+        <v>0.4834494283989699</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1598019242019291</v>
+        <v>0.2619833256707551</v>
       </c>
       <c r="E22">
-        <v>0.1986648937523583</v>
+        <v>0.4893729966292568</v>
       </c>
       <c r="F22">
-        <v>1.386565141142654</v>
+        <v>2.567465409666198</v>
       </c>
       <c r="G22">
-        <v>1.136116079260006</v>
+        <v>3.416655988178491</v>
       </c>
       <c r="H22">
-        <v>0.985783952423759</v>
+        <v>1.499672882517217</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2931730564125701</v>
+        <v>0.9306835489988288</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.54302484357828</v>
+        <v>32.00838966510145</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.194759118769241</v>
+        <v>0.4644638184537229</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1574768182892115</v>
+        <v>0.2526889712430176</v>
       </c>
       <c r="E23">
-        <v>0.1948358703229189</v>
+        <v>0.4650431581350176</v>
       </c>
       <c r="F23">
-        <v>1.391686072842219</v>
+        <v>2.366629442367412</v>
       </c>
       <c r="G23">
-        <v>1.129147138521091</v>
+        <v>3.170336827105075</v>
       </c>
       <c r="H23">
-        <v>0.9876934194796831</v>
+        <v>1.393700706641084</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2864789723007135</v>
+        <v>0.8767118313113116</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.218810567473099</v>
+        <v>30.50798394612485</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1763066164297129</v>
+        <v>0.3944258149135607</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1486758788245055</v>
+        <v>0.2187646583842451</v>
       </c>
       <c r="E24">
-        <v>0.1805142965461926</v>
+        <v>0.382039114029908</v>
       </c>
       <c r="F24">
-        <v>1.416321447555944</v>
+        <v>1.737286973312095</v>
       </c>
       <c r="G24">
-        <v>1.107330987298013</v>
+        <v>2.377728206346745</v>
       </c>
       <c r="H24">
-        <v>0.9977996690942632</v>
+        <v>1.058296634620802</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2615558628870787</v>
+        <v>0.697439731249375</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.989316594468505</v>
+        <v>25.22121226460411</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.156668218767976</v>
+        <v>0.3217203841626741</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.139193962424045</v>
+        <v>0.1839671043326234</v>
       </c>
       <c r="E25">
-        <v>0.1654367777617338</v>
+        <v>0.3047646166799325</v>
       </c>
       <c r="F25">
-        <v>1.453701928048076</v>
+        <v>1.238880729174198</v>
       </c>
       <c r="G25">
-        <v>1.093159998725127</v>
+        <v>1.715149748918634</v>
       </c>
       <c r="H25">
-        <v>1.014652629159997</v>
+        <v>0.7875035721020538</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2355401676461213</v>
+        <v>0.5375774683522252</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.659142366164247</v>
+        <v>20.04983264261571</v>
       </c>
       <c r="N25">
         <v>0</v>
